--- a/Data/list_username.xlsx
+++ b/Data/list_username.xlsx
@@ -1,26 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OLAH DATA\dapscan\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEDA553-3094-4F88-BDAE-B8504B6F2AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="list_username" sheetId="1" r:id="rId1"/>
+    <sheet name="list_username" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>name</t>
   </si>
@@ -28,479 +21,515 @@
     <t>username</t>
   </si>
   <si>
-    <t>Adi Nugroho SST</t>
+    <t xml:space="preserve">Adi Nugroho SST</t>
   </si>
   <si>
     <t>adi_nugroho</t>
   </si>
   <si>
-    <t>Adwi Hastuti SST</t>
+    <t xml:space="preserve">Adwi Hastuti SST</t>
   </si>
   <si>
     <t>adwi_hastuti</t>
   </si>
   <si>
-    <t>Alvina Clarissa SST</t>
+    <t xml:space="preserve">Alvina Clarissa SST</t>
   </si>
   <si>
     <t>alvina_clarissa</t>
   </si>
   <si>
-    <t>Ana Lailatul Fitriyani S.Tr.Stat.</t>
+    <t xml:space="preserve">Ana Lailatul Fitriyani S.Tr.Stat.</t>
   </si>
   <si>
     <t>ana_lailatul_fitriyani</t>
   </si>
   <si>
-    <t>Bayu Dwi Kurniawan S.Tr.Stat.</t>
+    <t xml:space="preserve">Bayu Dwi Kurniawan S.Tr.Stat.</t>
   </si>
   <si>
     <t>bayu_dwi_kurniawan</t>
   </si>
   <si>
-    <t>Dede Yoga Paramartha S.Tr.Stat</t>
+    <t xml:space="preserve">Chairul Anam SAP</t>
+  </si>
+  <si>
+    <t>chairul_anam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dede Yoga Paramartha S.Tr.Stat</t>
   </si>
   <si>
     <t>dede_yoga_paramartha</t>
   </si>
   <si>
-    <t>Dewi Krismawati SST, M.T.I</t>
+    <t xml:space="preserve">Dewi Krismawati SST, M.T.I</t>
   </si>
   <si>
     <t>dewi_krismawati</t>
   </si>
   <si>
-    <t>Dewi Lestari Amaliah SST</t>
+    <t xml:space="preserve">Dewi Lestari Amaliah SST</t>
   </si>
   <si>
     <t>dewi_lestari_amaliah</t>
   </si>
   <si>
-    <t>Dewi Widyawati S.Tr.Stat.</t>
+    <t xml:space="preserve">Dewi Widyawati S.Tr.Stat.</t>
   </si>
   <si>
     <t>dewi_widyawati</t>
   </si>
   <si>
-    <t>Dhiar Niken Larasati SST, M.E.</t>
+    <t xml:space="preserve">Dhiar Niken Larasati SST, M.E.</t>
   </si>
   <si>
     <t>dhiar_niken_larasati</t>
   </si>
   <si>
-    <t>Dimas Hari Santoso S.Si, M.Ec, M.E</t>
+    <t xml:space="preserve">Didit Puji Hariyanto SST</t>
+  </si>
+  <si>
+    <t>didit_puji_hariyanto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimas Hari Santoso S.Si, M.Ec, M.E</t>
   </si>
   <si>
     <t>dimas_hari_santoso</t>
   </si>
   <si>
-    <t>Dyah Retno Prihatinningsih B.St</t>
+    <t xml:space="preserve">Dyah Retno Prihatinningsih B.St</t>
   </si>
   <si>
     <t>dyah_retno_prihatinningsih</t>
   </si>
   <si>
-    <t>Ema Tusianti SST, SAB, M.T., M.Sc</t>
+    <t xml:space="preserve">Ema Tusianti SST, SAB, M.T., M.Sc</t>
   </si>
   <si>
     <t>ema_tusianti</t>
   </si>
   <si>
-    <t>Erna Yulianingsih SST, M.Appl.Ecmets</t>
+    <t xml:space="preserve">Erna Yulianingsih SST, M.Appl.Ecmets</t>
   </si>
   <si>
     <t>erna_yulianingsih</t>
   </si>
   <si>
-    <t>Ety Kurniati S.ST</t>
+    <t xml:space="preserve">Ety Kurniati S.ST</t>
   </si>
   <si>
     <t>ety_kurniati</t>
   </si>
   <si>
-    <t>Fadlilah Nur Hidayah S.Tr.Stat.</t>
+    <t xml:space="preserve">Fadlilah Nur Hidayah S.Tr.Stat.</t>
   </si>
   <si>
     <t>fadlilah_nur_hidayah</t>
   </si>
   <si>
-    <t>Farhan Anshari Arsyi S.Tr.Stat.</t>
+    <t xml:space="preserve">Farhan Anshari Arsyi S.Tr.Stat.</t>
   </si>
   <si>
     <t>farhan_anshari_arsyi</t>
   </si>
   <si>
-    <t>Fenny Afifatul Awwaliyah S.Tr.Stat.</t>
+    <t xml:space="preserve">Fenny Afifatul Awwaliyah S.Tr.Stat.</t>
   </si>
   <si>
     <t>fenny_afifatul_awwaliyah</t>
   </si>
   <si>
-    <t>I Gusti Ngurah Agung Rama Gunawan SST.,MT</t>
+    <t xml:space="preserve">I Gusti Ngurah Agung Rama Gunawan SST.,MT</t>
   </si>
   <si>
     <t>gusti_ngurah_agung_rama_gunawan</t>
   </si>
   <si>
-    <t>I Nyoman Setiawan S.Tr.Stat.</t>
+    <t xml:space="preserve">I Nyoman Setiawan S.Tr.Stat.</t>
   </si>
   <si>
     <t>nyoman_setiawan</t>
   </si>
   <si>
-    <t>Indah Budiati SST, M.Si</t>
+    <t xml:space="preserve">Indah Budiati SST, M.Si</t>
   </si>
   <si>
     <t>indah_budiati</t>
   </si>
   <si>
-    <t>Julita Lovitawati Br. Aritonang SST</t>
+    <t xml:space="preserve">Julita Lovitawati Br. Aritonang SST</t>
   </si>
   <si>
     <t>julita_lovitawati_aritonang</t>
   </si>
   <si>
-    <t>Khairunnisah SST, M.S.E</t>
+    <t xml:space="preserve">Khairunnisah SST, M.S.E</t>
   </si>
   <si>
     <t>khairunnisah</t>
   </si>
   <si>
-    <t>Lestyowati Endang Widyantari S.Si, M.Kesos</t>
+    <t xml:space="preserve">Lestyowati Endang Widyantari S.Si, M.Kesos</t>
   </si>
   <si>
     <t>lestyowati_endang_widyantari</t>
   </si>
   <si>
-    <t>Maria Audrey Widiatma S.Tr.Stat.</t>
+    <t xml:space="preserve">Maria Audrey Widiatma S.Tr.Stat.</t>
   </si>
   <si>
     <t>maria_audrey_widiatma</t>
   </si>
   <si>
-    <t>Maulana Faris SST</t>
+    <t xml:space="preserve">Maulana Faris SST</t>
   </si>
   <si>
     <t>maulana_faris</t>
   </si>
   <si>
-    <t>Muhammad Ihsan SST</t>
+    <t xml:space="preserve">Muhammad Ihsan SST</t>
   </si>
   <si>
     <t>muhammad_ihsan</t>
   </si>
   <si>
-    <t>Nensi Fitria Deli SST</t>
+    <t xml:space="preserve">Nensi Fitria Deli SST</t>
   </si>
   <si>
     <t>nensi_fitria_deli</t>
   </si>
   <si>
-    <t>Nia Setiyawati SST, M.Sc</t>
+    <t xml:space="preserve">Nia Setiyawati SST, M.Sc</t>
   </si>
   <si>
     <t>nia_setiyawati</t>
   </si>
   <si>
-    <t>Nurarifin SST, M.Ec.Dev, M.Ec.</t>
+    <t xml:space="preserve">Nurarifin SST, M.Ec.Dev, M.Ec.</t>
   </si>
   <si>
     <t>nurarifin</t>
   </si>
   <si>
-    <t>Putri Wahyu Handayani SST, M.S.E</t>
+    <t xml:space="preserve">Putri Wahyu Handayani SST, M.S.E</t>
   </si>
   <si>
     <t>putri_wahyu_handayani</t>
   </si>
   <si>
-    <t>Ranu Yulianto SST</t>
+    <t xml:space="preserve">Ranu Yulianto SST</t>
   </si>
   <si>
     <t>ranu_yulianto</t>
   </si>
   <si>
-    <t>Ria Noviana S.Tr.Stat.</t>
+    <t xml:space="preserve">Rerta Mastiani S.Si, M.Si</t>
+  </si>
+  <si>
+    <t>rerta_mastiani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ria Noviana S.Tr.Stat.</t>
   </si>
   <si>
     <t>ria_noviana</t>
   </si>
   <si>
-    <t>Sa'ad Tazkiahtu Dienulloh SST</t>
+    <t xml:space="preserve">Sa'ad Tazkiahtu Dienulloh SST</t>
   </si>
   <si>
     <t>sa'ad_tazkiahtu_dienulloh</t>
   </si>
   <si>
-    <t>Satria Bagus Panuntun S.Tr.Stat.</t>
+    <t xml:space="preserve">Satria Bagus Panuntun S.Tr.Stat.</t>
   </si>
   <si>
     <t>satria_bagus_panuntun</t>
   </si>
   <si>
-    <t>Sofaria Ayuni S.Si, MM</t>
+    <t xml:space="preserve">Sofaria Ayuni S.Si, MM</t>
   </si>
   <si>
     <t>sofaria_ayuni</t>
   </si>
   <si>
-    <t>Sukmasari Dewanti SST, M.Sc</t>
+    <t xml:space="preserve">Sukmasari Dewanti SST, M.Sc</t>
   </si>
   <si>
     <t>sukmasari_dewanti</t>
   </si>
   <si>
-    <t>Synthia Natalia Kristiani SST</t>
+    <t xml:space="preserve">Synthia Natalia Kristiani SST</t>
   </si>
   <si>
     <t>synthia_natalia_kristiani</t>
   </si>
   <si>
-    <t>Syukriyah Delyana SST</t>
+    <t xml:space="preserve">Syukriyah Delyana SST</t>
   </si>
   <si>
     <t>syukriyah_delyana</t>
   </si>
   <si>
-    <t>Tika Meilaningsih S.Tr.Stat.</t>
+    <t xml:space="preserve">Tika Meilaningsih S.Tr.Stat.</t>
   </si>
   <si>
     <t>tika_meilaningsih</t>
   </si>
   <si>
-    <t>Usman Bustaman S.Si, M.Sc</t>
+    <t xml:space="preserve">Usman Bustaman S.Si, M.Sc</t>
   </si>
   <si>
     <t>usman_bustaman</t>
   </si>
   <si>
-    <t>Wisnu Winardi SST, ME.</t>
+    <t xml:space="preserve">Wisnu Winardi SST, ME.</t>
   </si>
   <si>
     <t>wisnu_winardi</t>
   </si>
   <si>
-    <t>Yeshri Rahayu S.Si, M.Sc, MT</t>
+    <t xml:space="preserve">Yeshri Rahayu S.Si, M.Sc, MT</t>
   </si>
   <si>
     <t>yeshri_rahayu</t>
   </si>
   <si>
-    <t>Yohanes Eki Apriliawan SST</t>
+    <t xml:space="preserve">Yohanes Eki Apriliawan SST</t>
   </si>
   <si>
     <t>yohanes_eki_apriliawan</t>
   </si>
   <si>
-    <t>Yoyo Karyono SST</t>
+    <t xml:space="preserve">Yoyo Karyono SST</t>
   </si>
   <si>
     <t>yoyo_karyono</t>
   </si>
   <si>
-    <t>Zulfa Hidayah Satria Putri SST</t>
+    <t xml:space="preserve">Zulfa Hidayah Satria Putri SST</t>
   </si>
   <si>
     <t>zulfa_hidayah_satria_putri</t>
   </si>
   <si>
-    <t>Yuniarti S.Si</t>
+    <t xml:space="preserve">Yuniarti S.Si</t>
   </si>
   <si>
     <t>yuniarti</t>
   </si>
   <si>
-    <t>Adam Sofian S.Si, M.Si</t>
-  </si>
-  <si>
-    <t>Mutijo S.Si, M.Si</t>
-  </si>
-  <si>
-    <t>Dr. Muchammad Romzi</t>
+    <t xml:space="preserve"> Aprilia Ira Pratiwi SST</t>
+  </si>
+  <si>
+    <t>aprilia_ira</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ari Shobri Bukhari, SST M.Stat.</t>
+  </si>
+  <si>
+    <t>ari_shobri</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fauzi Muttaqin SST, MSR</t>
+  </si>
+  <si>
+    <t>fauzi_muttaqin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reni Amelia SST</t>
+  </si>
+  <si>
+    <t>reni_amelia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tigor Nirman Simanjuntak S.S</t>
+  </si>
+  <si>
+    <t>tigor_nirman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Widyayanto Adinugroho S.ST, M.Si</t>
+  </si>
+  <si>
+    <t>widyayanto_adinugroho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Sofian S.Si, M.Si</t>
+  </si>
+  <si>
+    <t>adam_sofian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Arham Rivai S.Si, M.Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arham rivai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Rifky Ariyadi S.Tr.Stat.</t>
   </si>
   <si>
     <t>muhammad_rifky</t>
   </si>
   <si>
+    <t xml:space="preserve">Mutijo S.Si, M.Si</t>
+  </si>
+  <si>
+    <t>mutijo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Putri Larasaty SST</t>
+  </si>
+  <si>
+    <t>putri_larasaty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valent Gigih Saputri SST, M.Ec.Dev.</t>
+  </si>
+  <si>
     <t>valent_gigih</t>
   </si>
   <si>
-    <t>reni_amelia</t>
-  </si>
-  <si>
-    <t>widyayanto_adinugroho</t>
-  </si>
-  <si>
-    <t>adam_sofian</t>
-  </si>
-  <si>
-    <t>arham rivai</t>
-  </si>
-  <si>
-    <t>mutijo</t>
+    <t xml:space="preserve">Dr. Muchammad Romzi</t>
   </si>
   <si>
     <t>muchammad_romzi</t>
   </si>
   <si>
-    <t>Dr. Arham Rivai S.Si, M.Si</t>
-  </si>
-  <si>
-    <t>Reni Amelia SST</t>
-  </si>
-  <si>
-    <t>Widyayanto Adinugroho S.ST, M.Si</t>
-  </si>
-  <si>
-    <t>Muhammad Rifky Ariyadi S.Tr.Stat.</t>
-  </si>
-  <si>
-    <t>Valent Gigih Saputri SST, M.Ec.Dev.</t>
-  </si>
-  <si>
-    <t>Taulina Anggarani S.Si, MA</t>
-  </si>
-  <si>
-    <t>taulina_anggarani</t>
+    <t xml:space="preserve">Mohammad Ammar Alwandi S.Tr.Stat.</t>
+  </si>
+  <si>
+    <t>ammar_alwandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lika Zuyyina Fuaida S.Tr.Stat.</t>
+  </si>
+  <si>
+    <t>lika_zuyyina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edi Waryono S.Si., M.Kesos.</t>
+  </si>
+  <si>
+    <t>edi_waryono</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.000000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="11.000000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.000000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.000000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.000000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18.000000"/>
       <color theme="3"/>
       <name val="Calibri Light"/>
-      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11.000000"/>
+      <color indexed="2"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -513,212 +542,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="10">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -733,7 +748,73 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -748,149 +829,114 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="12" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="13" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="14" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="15" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="16" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="18" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="20" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="21" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="22" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="23" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="24" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="25" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="2" fillId="26" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="3" fillId="27" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0"/>
+    <xf fontId="4" fillId="28" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf fontId="6" fillId="29" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="7" fillId="0" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0"/>
+    <xf fontId="8" fillId="0" borderId="4" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0"/>
+    <xf fontId="9" fillId="0" borderId="5" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0"/>
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf fontId="10" fillId="30" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0"/>
+    <xf fontId="11" fillId="0" borderId="6" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0"/>
+    <xf fontId="12" fillId="31" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="32" borderId="7" numFmtId="0" applyNumberFormat="0" applyFont="0" applyFill="1" applyBorder="1" applyProtection="0"/>
+    <xf fontId="13" fillId="27" borderId="8" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0"/>
+    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf fontId="15" fillId="0" borderId="9" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0"/>
+    <xf fontId="16" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Aksen1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Aksen1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Aksen2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Aksen3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Aksen4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Aksen5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Aksen6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Baik" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Buruk" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Catatan" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Judul" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Judul 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Judul 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Judul 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Judul 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Keluaran" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Masukan" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Netral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
+    <cellStyle name="20% - Accent4" xfId="4" builtinId="42"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
+    <cellStyle name="20% - Accent6" xfId="6" builtinId="50"/>
+    <cellStyle name="40% - Accent1" xfId="7" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="8" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="9" builtinId="39"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43"/>
+    <cellStyle name="40% - Accent5" xfId="11" builtinId="47"/>
+    <cellStyle name="40% - Accent6" xfId="12" builtinId="51"/>
+    <cellStyle name="60% - Accent1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36"/>
+    <cellStyle name="60% - Accent3" xfId="15" builtinId="40"/>
+    <cellStyle name="60% - Accent4" xfId="16" builtinId="44"/>
+    <cellStyle name="60% - Accent5" xfId="17" builtinId="48"/>
+    <cellStyle name="60% - Accent6" xfId="18" builtinId="52"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="20" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="21" builtinId="37"/>
+    <cellStyle name="Accent4" xfId="22" builtinId="41"/>
+    <cellStyle name="Accent5" xfId="23" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="24" builtinId="49"/>
+    <cellStyle name="Bad" xfId="25" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="27" builtinId="23"/>
+    <cellStyle name="Explanatory Text" xfId="28" builtinId="53"/>
+    <cellStyle name="Good" xfId="29" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="30" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="31" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="32" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="33" builtinId="19"/>
+    <cellStyle name="Input" xfId="34" builtinId="20"/>
+    <cellStyle name="Linked Cell" xfId="35" builtinId="24"/>
+    <cellStyle name="Neutral" xfId="36" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Perhitungan" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Sel Periksa" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Sel Tertaut" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Teks Penjelasan" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Teks Peringatan" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="37" builtinId="10"/>
+    <cellStyle name="Output" xfId="38" builtinId="21"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Total" xfId="40" builtinId="25"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -898,15 +944,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -948,108 +1274,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1057,7 +1289,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1083,7 +1315,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1135,16 +1367,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1160,7 +1404,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1191,30 +1435,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A46" zoomScale="100" workbookViewId="0">
+      <selection activeCell="B65" activeCellId="0" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="41.7109375"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1230,7 +1467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1238,7 +1475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1246,7 +1483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1254,7 +1491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1262,7 +1499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1270,7 +1507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1278,7 +1515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1286,7 +1523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1294,7 +1531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1302,7 +1539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1310,7 +1547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1318,7 +1555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1326,7 +1563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1334,7 +1571,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1342,7 +1579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1350,7 +1587,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1358,7 +1595,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1366,7 +1603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1374,7 +1611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1382,7 +1619,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1390,7 +1627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1398,7 +1635,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1406,7 +1643,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1414,7 +1651,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1422,7 +1659,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1430,7 +1667,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1438,7 +1675,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1446,7 +1683,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1454,7 +1691,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1462,7 +1699,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -1470,7 +1707,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -1478,7 +1715,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1486,7 +1723,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -1494,7 +1731,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -1502,7 +1739,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -1510,7 +1747,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -1518,7 +1755,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -1526,7 +1763,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1534,7 +1771,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -1542,7 +1779,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -1550,7 +1787,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -1558,7 +1795,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -1566,7 +1803,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -1574,7 +1811,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -1582,7 +1819,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -1590,88 +1827,184 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="52">
+      <c r="A52" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="53">
+      <c r="A53" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>97</v>
       </c>
       <c r="B53" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
         <v>111</v>
       </c>
-      <c r="B54" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>98</v>
-      </c>
-      <c r="B55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" t="s">
-        <v>95</v>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" ht="16.199999999999999" customHeight="1">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" ht="14.4">
+      <c r="A66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" ht="14.4">
+      <c r="A67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A52"/>
+    <hyperlink r:id="rId2" ref="A53"/>
+    <hyperlink r:id="rId3" ref="A54"/>
+    <hyperlink r:id="rId4" ref="A55"/>
+    <hyperlink r:id="rId5" ref="A56"/>
+    <hyperlink r:id="rId6" ref="A57"/>
+    <hyperlink r:id="rId7" ref="A58"/>
+    <hyperlink r:id="rId8" ref="A59"/>
+    <hyperlink r:id="rId9" ref="A60"/>
+    <hyperlink r:id="rId10" ref="A61"/>
+    <hyperlink r:id="rId11" ref="A62"/>
+    <hyperlink r:id="rId12" ref="A63"/>
+  </hyperlinks>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>